--- a/Second semester/neural network/HW1/lbl3.xlsx
+++ b/Second semester/neural network/HW1/lbl3.xlsx
@@ -784,7 +784,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -844,7 +844,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -859,7 +859,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -1349,7 +1349,7 @@
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:1">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:1">
@@ -1589,7 +1589,7 @@
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1">
@@ -1614,7 +1614,7 @@
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:1">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:1">
@@ -2034,7 +2034,7 @@
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:1">
@@ -2089,7 +2089,7 @@
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:1">
@@ -2279,7 +2279,7 @@
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:1">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -2789,7 +2789,7 @@
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -2879,12 +2879,12 @@
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:1">
@@ -2894,57 +2894,57 @@
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:1">
@@ -2954,7 +2954,7 @@
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -2964,17 +2964,17 @@
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:1">
@@ -2984,32 +2984,32 @@
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:1">
@@ -3019,57 +3019,57 @@
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:1">
@@ -3079,7 +3079,7 @@
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -3094,12 +3094,12 @@
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:1">
@@ -3109,7 +3109,7 @@
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -3124,7 +3124,7 @@
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:1">
@@ -3139,17 +3139,17 @@
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:1">
@@ -3174,17 +3174,17 @@
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:1">
@@ -3199,7 +3199,7 @@
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:1">
@@ -3214,7 +3214,7 @@
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:1">
@@ -3229,12 +3229,12 @@
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:1">
@@ -3259,7 +3259,7 @@
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:1">
@@ -3269,7 +3269,7 @@
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:1">
@@ -3309,7 +3309,7 @@
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:1">
@@ -3319,7 +3319,7 @@
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:1">
@@ -3374,7 +3374,7 @@
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:1">
@@ -3399,7 +3399,7 @@
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:1">
@@ -3409,7 +3409,7 @@
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:1">
@@ -3454,12 +3454,12 @@
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:1">
@@ -3469,7 +3469,7 @@
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:1">
@@ -3479,7 +3479,7 @@
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:1">
@@ -3519,7 +3519,7 @@
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:1">
@@ -3529,7 +3529,7 @@
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:1">
@@ -3564,7 +3564,7 @@
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:1">
@@ -3579,7 +3579,7 @@
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:1">
@@ -3594,7 +3594,7 @@
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:1">
@@ -3624,12 +3624,12 @@
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:1">
@@ -3639,7 +3639,7 @@
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1">
@@ -3649,12 +3649,12 @@
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:1">
@@ -3699,7 +3699,7 @@
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:1">
@@ -3709,7 +3709,7 @@
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:1">
@@ -3729,12 +3729,12 @@
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1">
@@ -3779,7 +3779,7 @@
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:1">
@@ -3789,62 +3789,62 @@
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:1">
@@ -3859,27 +3859,27 @@
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:1">
@@ -3889,57 +3889,57 @@
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:1">
@@ -4034,7 +4034,7 @@
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:1">
@@ -4709,7 +4709,7 @@
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:1">
@@ -4749,7 +4749,7 @@
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:1">
@@ -4854,7 +4854,7 @@
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:1">
@@ -4879,7 +4879,7 @@
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:1">
@@ -4894,7 +4894,7 @@
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:1">
@@ -4954,7 +4954,7 @@
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:1">
@@ -4994,7 +4994,7 @@
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:1">
@@ -5004,7 +5004,7 @@
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:1">
@@ -5039,7 +5039,7 @@
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:1">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:1">
@@ -5189,7 +5189,7 @@
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:1">
@@ -5264,7 +5264,7 @@
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:1">
@@ -5279,7 +5279,7 @@
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:1">
@@ -5294,7 +5294,7 @@
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:1">
@@ -5469,7 +5469,7 @@
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
@@ -5494,7 +5494,7 @@
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
@@ -5599,7 +5599,7 @@
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
@@ -5639,7 +5639,7 @@
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
@@ -5654,12 +5654,12 @@
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
@@ -6899,7 +6899,7 @@
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
@@ -6994,7 +6994,7 @@
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
@@ -7054,7 +7054,7 @@
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
@@ -7269,7 +7269,7 @@
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
@@ -7354,7 +7354,7 @@
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
@@ -7434,7 +7434,7 @@
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
@@ -7449,7 +7449,7 @@
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
@@ -7499,7 +7499,7 @@
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
@@ -8149,7 +8149,7 @@
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
@@ -8194,7 +8194,7 @@
     </row>
     <row r="1565" spans="1:1">
       <c r="A1565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1566" spans="1:1">
@@ -8264,7 +8264,7 @@
     </row>
     <row r="1579" spans="1:1">
       <c r="A1579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:1">
@@ -8409,7 +8409,7 @@
     </row>
     <row r="1608" spans="1:1">
       <c r="A1608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1609" spans="1:1">
@@ -8519,7 +8519,7 @@
     </row>
     <row r="1630" spans="1:1">
       <c r="A1630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
@@ -8639,7 +8639,7 @@
     </row>
     <row r="1654" spans="1:1">
       <c r="A1654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1655" spans="1:1">
@@ -8844,7 +8844,7 @@
     </row>
     <row r="1695" spans="1:1">
       <c r="A1695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1696" spans="1:1">
@@ -9019,7 +9019,7 @@
     </row>
     <row r="1730" spans="1:1">
       <c r="A1730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:1">
